--- a/dataCompilation.xlsx
+++ b/dataCompilation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ucmuser\Box\FMEnergy\Utilities\Utility Recharges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ucmuser\Documents\GitHub\refillRecharge\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="10260" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="10260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Electricity" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -117,6 +117,147 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>Meter</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>Main Campus</t>
+  </si>
+  <si>
+    <t>1025am</t>
+  </si>
+  <si>
+    <t>249138/1311847cuft.</t>
+  </si>
+  <si>
+    <t>241912/1276343cuft.</t>
+  </si>
+  <si>
+    <t>Catherdal</t>
+  </si>
+  <si>
+    <t>200pm</t>
+  </si>
+  <si>
+    <t>58547cuft.</t>
+  </si>
+  <si>
+    <t>57377cuft.</t>
+  </si>
+  <si>
+    <t>Tenaya</t>
+  </si>
+  <si>
+    <t>210pm</t>
+  </si>
+  <si>
+    <t>69536cuft.</t>
+  </si>
+  <si>
+    <t>67699cuft.</t>
+  </si>
+  <si>
+    <t>Half Dome</t>
+  </si>
+  <si>
+    <t>220pm</t>
+  </si>
+  <si>
+    <t>58173cuft.</t>
+  </si>
+  <si>
+    <t>56121cuft.</t>
+  </si>
+  <si>
+    <t>Dinning</t>
+  </si>
+  <si>
+    <t>1015am</t>
+  </si>
+  <si>
+    <t>75150cuft.</t>
+  </si>
+  <si>
+    <t>Terrace Center</t>
+  </si>
+  <si>
+    <t>1010am</t>
+  </si>
+  <si>
+    <t>1841cuft.</t>
+  </si>
+  <si>
+    <t>731cuft.</t>
+  </si>
+  <si>
+    <t>Mariposa Hall</t>
+  </si>
+  <si>
+    <t>952am</t>
+  </si>
+  <si>
+    <t>293477cuft.</t>
+  </si>
+  <si>
+    <t>273781.96875scf</t>
+  </si>
+  <si>
+    <t>Tuolumne Hall</t>
+  </si>
+  <si>
+    <t>947am</t>
+  </si>
+  <si>
+    <t>294527968.00scf</t>
+  </si>
+  <si>
+    <t>291085248.00scf</t>
+  </si>
+  <si>
+    <t>Tuolumne/Mariposa</t>
+  </si>
+  <si>
+    <t>943am</t>
+  </si>
+  <si>
+    <t>77944cuft.</t>
+  </si>
+  <si>
+    <t>77223cuft.</t>
+  </si>
+  <si>
+    <t>Rec&amp; Wellness/SAAC</t>
+  </si>
+  <si>
+    <t>936am</t>
+  </si>
+  <si>
+    <t>22060cuft.</t>
+  </si>
+  <si>
+    <t>20580cuft.</t>
+  </si>
+  <si>
+    <t>Central Plant</t>
+  </si>
+  <si>
+    <t>921am</t>
+  </si>
+  <si>
+    <t>378945/180909cuft.</t>
+  </si>
+  <si>
+    <t>374268/178623cuft.</t>
   </si>
 </sst>
 </file>
@@ -140,7 +281,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -148,13 +289,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,7 +694,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,61 +1114,197 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -933,11 +1325,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/dataCompilation.xlsx
+++ b/dataCompilation.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="10260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="10260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Electricity" sheetId="1" r:id="rId1"/>
     <sheet name="Gas" sheetId="2" r:id="rId2"/>
     <sheet name="CHW" sheetId="3" r:id="rId3"/>
     <sheet name="Water" sheetId="4" r:id="rId4"/>
+    <sheet name="Rates" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -116,9 +117,6 @@
     <t>facilities_chw_recharge</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>Meter</t>
   </si>
   <si>
@@ -131,140 +129,487 @@
     <t>Previous</t>
   </si>
   <si>
-    <t>Main Campus</t>
-  </si>
-  <si>
-    <t>1025am</t>
-  </si>
-  <si>
-    <t>249138/1311847cuft.</t>
-  </si>
-  <si>
-    <t>241912/1276343cuft.</t>
-  </si>
-  <si>
-    <t>Catherdal</t>
-  </si>
-  <si>
-    <t>200pm</t>
-  </si>
-  <si>
-    <t>58547cuft.</t>
-  </si>
-  <si>
-    <t>57377cuft.</t>
-  </si>
-  <si>
-    <t>Tenaya</t>
-  </si>
-  <si>
-    <t>210pm</t>
-  </si>
-  <si>
-    <t>69536cuft.</t>
-  </si>
-  <si>
-    <t>67699cuft.</t>
-  </si>
-  <si>
-    <t>Half Dome</t>
-  </si>
-  <si>
-    <t>220pm</t>
-  </si>
-  <si>
-    <t>58173cuft.</t>
-  </si>
-  <si>
-    <t>56121cuft.</t>
-  </si>
-  <si>
-    <t>Dinning</t>
-  </si>
-  <si>
-    <t>1015am</t>
-  </si>
-  <si>
-    <t>75150cuft.</t>
-  </si>
-  <si>
-    <t>Terrace Center</t>
-  </si>
-  <si>
-    <t>1010am</t>
-  </si>
-  <si>
-    <t>1841cuft.</t>
-  </si>
-  <si>
-    <t>731cuft.</t>
-  </si>
-  <si>
-    <t>Mariposa Hall</t>
-  </si>
-  <si>
-    <t>952am</t>
-  </si>
-  <si>
-    <t>293477cuft.</t>
-  </si>
-  <si>
-    <t>273781.96875scf</t>
-  </si>
-  <si>
-    <t>Tuolumne Hall</t>
-  </si>
-  <si>
-    <t>947am</t>
-  </si>
-  <si>
-    <t>294527968.00scf</t>
-  </si>
-  <si>
-    <t>291085248.00scf</t>
-  </si>
-  <si>
-    <t>Tuolumne/Mariposa</t>
-  </si>
-  <si>
-    <t>943am</t>
-  </si>
-  <si>
-    <t>77944cuft.</t>
-  </si>
-  <si>
-    <t>77223cuft.</t>
-  </si>
-  <si>
-    <t>Rec&amp; Wellness/SAAC</t>
-  </si>
-  <si>
-    <t>936am</t>
-  </si>
-  <si>
-    <t>22060cuft.</t>
-  </si>
-  <si>
-    <t>20580cuft.</t>
-  </si>
-  <si>
-    <t>Central Plant</t>
-  </si>
-  <si>
-    <t>921am</t>
-  </si>
-  <si>
-    <t>378945/180909cuft.</t>
-  </si>
-  <si>
-    <t>374268/178623cuft.</t>
+    <t>El Cap KWH</t>
+  </si>
+  <si>
+    <t>El Cap $</t>
+  </si>
+  <si>
+    <t>Wilson KWH</t>
+  </si>
+  <si>
+    <t>Wilson $</t>
+  </si>
+  <si>
+    <t>Sunpower KWH</t>
+  </si>
+  <si>
+    <t>Sunpower $</t>
+  </si>
+  <si>
+    <t>UCOP $</t>
+  </si>
+  <si>
+    <t>Water $</t>
+  </si>
+  <si>
+    <t>Water HCF</t>
+  </si>
+  <si>
+    <t>Gas $</t>
+  </si>
+  <si>
+    <t>Gas Therms</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Main Campus</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>7:30am</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>241912/1276343cuft.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>234395/1239386cuft.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Catherdal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>7:45am</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>57377cuft.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>56245 cuft.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tenaya</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>7:53am</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>67699cuft.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>65923 cuft.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Half Dome</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>8:00am</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>56121cuft.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>54285 cuft.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dinning</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>8:15am</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>75150cuft.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>74582 cuft.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Terrace Center</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>8:30am</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>731cuft.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2 cuft. starting  1-31-18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mariposa Hall</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>8:45am</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>273781.96875scf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>223889.64063 SCF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tuolumne Hall</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>8:50am</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>291085248.00scf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>285247360.00 SCF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tuolumne/Mariposa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>8:55am</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>77223cuft.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>76515 cuft.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rec&amp; Wellness/SAAC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>9:00am</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>20580cuft.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>18970 cuft.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Central Plant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>9:15am</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>374268/178623cuft.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>369380/176231 cuft.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,16 +617,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -309,86 +677,22 @@
       <right style="dotted">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
-      <right style="dotted">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -396,21 +700,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,7 +1008,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,19 +1046,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C2">
-        <v>48369.75</v>
+        <v>46945.75</v>
       </c>
       <c r="D2">
-        <v>48713.494435234497</v>
+        <v>46945.75</v>
       </c>
       <c r="E2">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F2">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -752,19 +1066,19 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C3">
-        <v>5233.95721061527</v>
+        <v>5038.1250723451303</v>
       </c>
       <c r="D3">
-        <v>5246.2972940417503</v>
+        <v>5038.1250723451303</v>
       </c>
       <c r="E3">
-        <v>2969</v>
+        <v>2688</v>
       </c>
       <c r="F3">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -772,7 +1086,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -781,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2972</v>
+        <v>2679</v>
       </c>
       <c r="F4">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -792,19 +1106,19 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C5">
-        <v>48701.722671031901</v>
+        <v>52563.024583339597</v>
       </c>
       <c r="D5">
-        <v>49047.826303043701</v>
+        <v>52563.024583339597</v>
       </c>
       <c r="E5">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F5">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -812,19 +1126,19 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C6">
-        <v>559.5</v>
+        <v>19080</v>
       </c>
       <c r="D6">
-        <v>17344.500277512001</v>
+        <v>19080</v>
       </c>
       <c r="E6">
-        <v>96</v>
+        <v>2688</v>
       </c>
       <c r="F6">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -832,19 +1146,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C7">
-        <v>40520.913734435999</v>
+        <v>38286.588957786502</v>
       </c>
       <c r="D7">
-        <v>40575.450670200997</v>
+        <v>38286.588957786502</v>
       </c>
       <c r="E7">
-        <v>2972</v>
+        <v>2688</v>
       </c>
       <c r="F7">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -852,19 +1166,19 @@
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C8">
-        <v>5613.7507138252204</v>
+        <v>6071.25077199935</v>
       </c>
       <c r="D8">
-        <v>5653.6453911529097</v>
+        <v>6071.25077199935</v>
       </c>
       <c r="E8">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F8">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -872,19 +1186,19 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C9">
-        <v>42685.139094600403</v>
+        <v>44180.369018859601</v>
       </c>
       <c r="D9">
-        <v>44855.569906664503</v>
+        <v>44180.369018859601</v>
       </c>
       <c r="E9">
-        <v>2832</v>
+        <v>2688</v>
       </c>
       <c r="F9">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -892,19 +1206,19 @@
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C10">
-        <v>32820.8530445098</v>
+        <v>30818.777075767499</v>
       </c>
       <c r="D10">
-        <v>32865.0264993823</v>
+        <v>30818.777075767499</v>
       </c>
       <c r="E10">
-        <v>2972</v>
+        <v>2688</v>
       </c>
       <c r="F10">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -912,7 +1226,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -921,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F11">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -932,19 +1246,19 @@
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C12">
-        <v>8293.1258988380396</v>
+        <v>3470.6253817081401</v>
       </c>
       <c r="D12">
-        <v>8352.0618221873392</v>
+        <v>3470.6253817081401</v>
       </c>
       <c r="E12">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F12">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -952,19 +1266,19 @@
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C13">
-        <v>2938.1253736019098</v>
+        <v>2733.7503476142801</v>
       </c>
       <c r="D13">
-        <v>2959.0054535526401</v>
+        <v>2733.7503476142801</v>
       </c>
       <c r="E13">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F13">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -972,19 +1286,19 @@
         <v>18</v>
       </c>
       <c r="B14" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C14">
-        <v>4125.0005245208704</v>
+        <v>4243.12553954124</v>
       </c>
       <c r="D14">
-        <v>4154.3152506801598</v>
+        <v>4243.12553954124</v>
       </c>
       <c r="E14">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F14">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -992,19 +1306,19 @@
         <v>19</v>
       </c>
       <c r="B15" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C15">
-        <v>4777.5006074905396</v>
+        <v>4770.0006065368598</v>
       </c>
       <c r="D15">
-        <v>4811.4523903332101</v>
+        <v>4770.0006065368598</v>
       </c>
       <c r="E15">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F15">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1012,19 +1326,19 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C16">
-        <v>6650.6258456707001</v>
+        <v>6798.7508642673401</v>
       </c>
       <c r="D16">
-        <v>6697.8891791647902</v>
+        <v>6798.7508642673401</v>
       </c>
       <c r="E16">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F16">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1032,19 +1346,19 @@
         <v>21</v>
       </c>
       <c r="B17" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C17">
-        <v>5045.62564158439</v>
+        <v>5101.8756487369501</v>
       </c>
       <c r="D17">
-        <v>5081.4828816274203</v>
+        <v>5101.8756487369501</v>
       </c>
       <c r="E17">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F17">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1052,19 +1366,19 @@
         <v>22</v>
       </c>
       <c r="B18" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C18">
-        <v>3129.3753979205999</v>
+        <v>3069.3753902912099</v>
       </c>
       <c r="D18">
-        <v>3151.61461517509</v>
+        <v>3069.3753902912099</v>
       </c>
       <c r="E18">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F18">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1072,19 +1386,19 @@
         <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C19">
-        <v>5161.8756563663401</v>
+        <v>5386.8756849765696</v>
       </c>
       <c r="D19">
-        <v>5198.5590386920403</v>
+        <v>5386.8756849765696</v>
       </c>
       <c r="E19">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F19">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1092,19 +1406,19 @@
         <v>24</v>
       </c>
       <c r="B20" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C20">
-        <v>4813.1256120204898</v>
+        <v>4854.3756172657004</v>
       </c>
       <c r="D20">
-        <v>4847.3305674981702</v>
+        <v>4854.3756172657004</v>
       </c>
       <c r="E20">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F20">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
   </sheetData>
@@ -1114,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,186 +1439,224 @@
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="8" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>43132</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2473.8362635154399</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3427.66591789531</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1940</v>
+      </c>
+      <c r="F15" s="7">
+        <v>2688</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -1326,12 +1678,14 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1359,99 +1713,99 @@
         <v>25</v>
       </c>
       <c r="B2" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C2">
-        <v>6072.5624807929498</v>
+        <v>4009.9892721358301</v>
       </c>
       <c r="D2">
-        <v>6115.7177495381202</v>
+        <v>4009.9892721358301</v>
       </c>
       <c r="E2">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F2">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C3">
-        <v>26093.083462577299</v>
+        <v>-372.499378121549</v>
       </c>
       <c r="D3">
-        <v>26145.796787855201</v>
+        <v>-823.41967864630396</v>
       </c>
       <c r="E3">
-        <v>2970</v>
+        <v>1216</v>
       </c>
       <c r="F3">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C4">
-        <v>112.65666699630501</v>
+        <v>20111.2558274574</v>
       </c>
       <c r="D4">
-        <v>3492.3567327631599</v>
+        <v>20201.440836965699</v>
       </c>
       <c r="E4">
-        <v>96</v>
+        <v>2676</v>
       </c>
       <c r="F4">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C5">
-        <v>3860.2020758540102</v>
+        <v>3374.0002149607199</v>
       </c>
       <c r="D5">
-        <v>3865.3975063921898</v>
+        <v>3374.0002149607199</v>
       </c>
       <c r="E5">
-        <v>2972</v>
+        <v>2688</v>
       </c>
       <c r="F5">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C6">
-        <v>-2969</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
+        <v>2903.63395153275</v>
+      </c>
+      <c r="D6">
+        <v>2903.63395153275</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2688</v>
       </c>
       <c r="F6">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1459,19 +1813,19 @@
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C7">
-        <v>8975.2658811045294</v>
+        <v>6415.6882258669002</v>
       </c>
       <c r="D7">
-        <v>8990.3706747982196</v>
+        <v>6415.6882258668902</v>
       </c>
       <c r="E7">
-        <v>2971</v>
+        <v>2688</v>
       </c>
       <c r="F7">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1479,19 +1833,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C8">
-        <v>1757.6869810682799</v>
+        <v>1008.80625127452</v>
       </c>
       <c r="D8">
-        <v>1760.0526449476699</v>
+        <v>1009.18169108396</v>
       </c>
       <c r="E8">
-        <v>2972</v>
+        <v>2687</v>
       </c>
       <c r="F8">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,19 +1853,19 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C9">
-        <v>3990.7936183871998</v>
+        <v>2549.2574947712201</v>
       </c>
       <c r="D9">
-        <v>4694.3090184713501</v>
+        <v>2896.1978649788898</v>
       </c>
       <c r="E9">
-        <v>2530</v>
+        <v>2366</v>
       </c>
       <c r="F9">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1519,19 +1873,19 @@
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C10">
-        <v>1233.43552703101</v>
+        <v>1121.23530509953</v>
       </c>
       <c r="D10">
-        <v>1242.2010591794599</v>
+        <v>1121.23530509953</v>
       </c>
       <c r="E10">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F10">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1539,19 +1893,19 @@
         <v>16</v>
       </c>
       <c r="B11" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C11">
-        <v>1454.37093320181</v>
+        <v>917.82248646060395</v>
       </c>
       <c r="D11">
-        <v>1464.70656477019</v>
+        <v>917.82248646060395</v>
       </c>
       <c r="E11">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F11">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1559,19 +1913,19 @@
         <v>17</v>
       </c>
       <c r="B12" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C12">
-        <v>899.87979112580399</v>
+        <v>592.18282060933495</v>
       </c>
       <c r="D12">
-        <v>906.274876289144</v>
+        <v>592.18282060933495</v>
       </c>
       <c r="E12">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F12">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1579,19 +1933,19 @@
         <v>18</v>
       </c>
       <c r="B13" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C13">
-        <v>3811.2795081855902</v>
+        <v>3352.1689897351398</v>
       </c>
       <c r="D13">
-        <v>3838.3647447655198</v>
+        <v>3352.1689897351398</v>
       </c>
       <c r="E13">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F13">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1599,19 +1953,19 @@
         <v>19</v>
       </c>
       <c r="B14" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C14">
-        <v>1805.9553081720001</v>
+        <v>1440.59312509605</v>
       </c>
       <c r="D14">
-        <v>1818.78950904065</v>
+        <v>1440.59312509605</v>
       </c>
       <c r="E14">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F14">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1619,19 +1973,19 @@
         <v>20</v>
       </c>
       <c r="B15" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C15">
-        <v>2395.9635828842602</v>
+        <v>2300.9257417522799</v>
       </c>
       <c r="D15">
-        <v>2412.9907361906398</v>
+        <v>2300.9257417522799</v>
       </c>
       <c r="E15">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F15">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1639,19 +1993,19 @@
         <v>21</v>
       </c>
       <c r="B16" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C16">
-        <v>3955.37655887455</v>
+        <v>3444.4536418758298</v>
       </c>
       <c r="D16">
-        <v>3983.4858354651901</v>
+        <v>3444.4536418758298</v>
       </c>
       <c r="E16">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F16">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1659,19 +2013,19 @@
         <v>22</v>
       </c>
       <c r="B17" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C17">
-        <v>344.06458481152703</v>
+        <v>373.62812574704498</v>
       </c>
       <c r="D17">
-        <v>346.50971397572999</v>
+        <v>373.62812574704498</v>
       </c>
       <c r="E17">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F17">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1679,19 +2033,19 @@
         <v>23</v>
       </c>
       <c r="B18" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C18">
-        <v>711.96540559401001</v>
+        <v>1120.3726084545699</v>
       </c>
       <c r="D18">
-        <v>717.02505850212697</v>
+        <v>1120.3726084545699</v>
       </c>
       <c r="E18">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F18">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1699,19 +2053,19 @@
         <v>24</v>
       </c>
       <c r="B19" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="C19">
-        <v>1483.41449223786</v>
+        <v>1079.2741677149399</v>
       </c>
       <c r="D19">
-        <v>1493.9565247448099</v>
+        <v>1079.2741677149399</v>
       </c>
       <c r="E19">
-        <v>2955</v>
+        <v>2688</v>
       </c>
       <c r="F19">
-        <v>2976</v>
+        <v>2688</v>
       </c>
     </row>
   </sheetData>
@@ -1729,4 +2083,110 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1">
+        <v>1574771</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>122407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>1506.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>176624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>27007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>107322.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>39963.699999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>9534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <v>67910.850000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>74496</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dataCompilation.xlsx
+++ b/dataCompilation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="10260" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="Electricity" sheetId="1" r:id="rId1"/>
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,16 +1163,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>43132</v>
       </c>
       <c r="C8">
-        <v>6071.25077199935</v>
+        <v>44180.369018859601</v>
       </c>
       <c r="D8">
-        <v>6071.25077199935</v>
+        <v>44180.369018859601</v>
       </c>
       <c r="E8">
         <v>2688</v>
@@ -1183,16 +1183,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>43132</v>
       </c>
       <c r="C9">
-        <v>44180.369018859601</v>
+        <v>30818.777075767499</v>
       </c>
       <c r="D9">
-        <v>44180.369018859601</v>
+        <v>30818.777075767499</v>
       </c>
       <c r="E9">
         <v>2688</v>
@@ -1203,16 +1203,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
         <v>43132</v>
       </c>
       <c r="C10">
-        <v>30818.777075767499</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>30818.777075767499</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>2688</v>
@@ -1223,16 +1223,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>43132</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>6071.25077199935</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>6071.25077199935</v>
       </c>
       <c r="E11">
         <v>2688</v>
@@ -2089,7 +2089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/dataCompilation.xlsx
+++ b/dataCompilation.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -603,6 +603,9 @@
       </rPr>
       <t>369380/176231 cuft.</t>
     </r>
+  </si>
+  <si>
+    <t>Commons is meter read</t>
   </si>
 </sst>
 </file>
@@ -1005,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,9 +1022,10 @@
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1061,7 +1065,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1081,7 +1085,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1089,10 +1093,10 @@
         <v>43132</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>5038.1250723451303</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>5038.1250723451303</v>
       </c>
       <c r="E4">
         <v>2679</v>
@@ -1101,7 +1105,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1121,7 +1125,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1141,7 +1145,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1161,7 +1165,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1181,7 +1185,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1201,7 +1205,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1209,10 +1213,10 @@
         <v>43132</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>30818.777075767499</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>30818.777075767499</v>
       </c>
       <c r="E10">
         <v>2688</v>
@@ -1221,7 +1225,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1241,7 +1245,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1249,19 +1253,13 @@
         <v>43132</v>
       </c>
       <c r="C12">
-        <v>3470.6253817081401</v>
-      </c>
-      <c r="D12">
-        <v>3470.6253817081401</v>
-      </c>
-      <c r="E12">
-        <v>2688</v>
-      </c>
-      <c r="F12">
-        <v>2688</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2659219</v>
+      </c>
+      <c r="H12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1281,7 +1279,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1301,7 +1299,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1321,7 +1319,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1419,6 +1417,11 @@
       </c>
       <c r="F20">
         <v>2688</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>2680920</v>
       </c>
     </row>
   </sheetData>
@@ -1431,7 +1434,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,7 +1681,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,7 +2093,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dataCompilation.xlsx
+++ b/dataCompilation.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Electricity" sheetId="1" r:id="rId1"/>
     <sheet name="Gas" sheetId="2" r:id="rId2"/>
     <sheet name="CHW" sheetId="3" r:id="rId3"/>
-    <sheet name="Water" sheetId="4" r:id="rId4"/>
+    <sheet name="Water" sheetId="7" r:id="rId4"/>
     <sheet name="Rates" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="145">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -165,454 +165,314 @@
     <t>Library</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Main Campus</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>7:30am</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>241912/1276343cuft.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>234395/1239386cuft.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Catherdal</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>7:45am</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>57377cuft.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>56245 cuft.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tenaya</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>7:53am</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>67699cuft.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>65923 cuft.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Half Dome</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>8:00am</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>56121cuft.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>54285 cuft.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Dinning</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>8:15am</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>75150cuft.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>74582 cuft.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Terrace Center</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>8:30am</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>731cuft.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2 cuft. starting  1-31-18</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Mariposa Hall</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>8:45am</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>273781.96875scf</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>223889.64063 SCF</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tuolumne Hall</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>8:50am</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>291085248.00scf</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>285247360.00 SCF</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tuolumne/Mariposa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>8:55am</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>77223cuft.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>76515 cuft.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Rec&amp; Wellness/SAAC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>9:00am</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>20580cuft.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>18970 cuft.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Central Plant</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>9:15am</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>374268/178623cuft.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>369380/176231 cuft.</t>
-    </r>
-  </si>
-  <si>
     <t>Commons is meter read</t>
+  </si>
+  <si>
+    <t>Location_Name</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Previous Read</t>
+  </si>
+  <si>
+    <t>Academic Office Building</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Calaveras/Merced Halls</t>
+  </si>
+  <si>
+    <t>Campus Main Distribution Meter</t>
+  </si>
+  <si>
+    <t>Campus Main Irrigation Meter</t>
+  </si>
+  <si>
+    <t>Carol Tomlinson Quad - North Irrigation</t>
+  </si>
+  <si>
+    <t>Carol Tomlinson Quad - South Irrigation</t>
+  </si>
+  <si>
+    <t>Cathedral Hall</t>
+  </si>
+  <si>
+    <t>Central Plant Cooling Tower</t>
+  </si>
+  <si>
+    <t>Central Plant/Telecom</t>
+  </si>
+  <si>
+    <t>Classroom Office Building (COB)</t>
+  </si>
+  <si>
+    <t>Classroom Office Building 2</t>
+  </si>
+  <si>
+    <t>Classroom Office Building 2 Irrigation</t>
+  </si>
+  <si>
+    <t>Corporation Yard</t>
+  </si>
+  <si>
+    <t>Early Childhood Education Center</t>
+  </si>
+  <si>
+    <t>Early Childhood Education Center Irrigation</t>
+  </si>
+  <si>
+    <t>Facilities A&amp;B Irrigation</t>
+  </si>
+  <si>
+    <t>Facilities A+B</t>
+  </si>
+  <si>
+    <t>Half Dome</t>
+  </si>
+  <si>
+    <t>Half Dome Irrigation</t>
+  </si>
+  <si>
+    <t>Heating Loop for Housing</t>
+  </si>
+  <si>
+    <t>Kern Hall</t>
+  </si>
+  <si>
+    <t>Kolligian Library</t>
+  </si>
+  <si>
+    <t>Police Trailers</t>
+  </si>
+  <si>
+    <t>Quad / Library / COB Irrigation</t>
+  </si>
+  <si>
+    <t>Rec Center/SAAC Irrigation</t>
+  </si>
+  <si>
+    <t>Recreation and Wellness</t>
+  </si>
+  <si>
+    <t>S&amp;E / CP Lanscape/Turf</t>
+  </si>
+  <si>
+    <t>S&amp;E 2</t>
+  </si>
+  <si>
+    <t>S&amp;E2 Irrigation</t>
+  </si>
+  <si>
+    <t>SSB Irrigation</t>
+  </si>
+  <si>
+    <t>San Joaquin</t>
+  </si>
+  <si>
+    <t>Scholars Lane/Ampitheater Irrigation</t>
+  </si>
+  <si>
+    <t>Science &amp; Engineering 1</t>
+  </si>
+  <si>
+    <t>Sewer</t>
+  </si>
+  <si>
+    <t>392958 x 1000</t>
+  </si>
+  <si>
+    <t>Sierra Terraces  Irrigation</t>
+  </si>
+  <si>
+    <t>Social Science &amp; Management North Irrigation</t>
+  </si>
+  <si>
+    <t>Social Science Management South Irrigation</t>
+  </si>
+  <si>
+    <t>Social Sciences and Management Building</t>
+  </si>
+  <si>
+    <t>Stanislaus/Madera/Fresno/Kings Halls</t>
+  </si>
+  <si>
+    <t>Student Activities Athletics Center</t>
+  </si>
+  <si>
+    <t>Student Recreation Field #1 Irrigation</t>
+  </si>
+  <si>
+    <t>Student Recreation Field #2 Irrigation</t>
+  </si>
+  <si>
+    <t>Student Services Building</t>
+  </si>
+  <si>
+    <t>Summits South Irrigation</t>
+  </si>
+  <si>
+    <t>Tenaya Hall</t>
+  </si>
+  <si>
+    <t>Terrace Center</t>
+  </si>
+  <si>
+    <t>Tulare Hall</t>
+  </si>
+  <si>
+    <t>Tuolumne/Mariposa Halls</t>
+  </si>
+  <si>
+    <t>Valley Terraces Irrigation</t>
+  </si>
+  <si>
+    <t>Yablokoff-Wallace Dinning Center</t>
+  </si>
+  <si>
+    <t>386406 x 1000</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Main Campus</t>
+  </si>
+  <si>
+    <t>1025am</t>
+  </si>
+  <si>
+    <t>249138/1311847cuft.</t>
+  </si>
+  <si>
+    <t>241912/1276343cuft.</t>
+  </si>
+  <si>
+    <t>Catherdal</t>
+  </si>
+  <si>
+    <t>200pm</t>
+  </si>
+  <si>
+    <t>58547cuft.</t>
+  </si>
+  <si>
+    <t>57377cuft.</t>
+  </si>
+  <si>
+    <t>Tenaya</t>
+  </si>
+  <si>
+    <t>210pm</t>
+  </si>
+  <si>
+    <t>69536cuft.</t>
+  </si>
+  <si>
+    <t>67699cuft.</t>
+  </si>
+  <si>
+    <t>220pm</t>
+  </si>
+  <si>
+    <t>58173cuft.</t>
+  </si>
+  <si>
+    <t>56121cuft.</t>
+  </si>
+  <si>
+    <t>Dinning</t>
+  </si>
+  <si>
+    <t>1015am</t>
+  </si>
+  <si>
+    <t>75150cuft.</t>
+  </si>
+  <si>
+    <t>1010am</t>
+  </si>
+  <si>
+    <t>1841cuft.</t>
+  </si>
+  <si>
+    <t>731cuft.</t>
+  </si>
+  <si>
+    <t>Mariposa Hall</t>
+  </si>
+  <si>
+    <t>952am</t>
+  </si>
+  <si>
+    <t>293477cuft.</t>
+  </si>
+  <si>
+    <t>273781.96875scf</t>
+  </si>
+  <si>
+    <t>Tuolumne Hall</t>
+  </si>
+  <si>
+    <t>947am</t>
+  </si>
+  <si>
+    <t>294527968.00scf</t>
+  </si>
+  <si>
+    <t>291085248.00scf</t>
+  </si>
+  <si>
+    <t>Tuolumne/Mariposa</t>
+  </si>
+  <si>
+    <t>943am</t>
+  </si>
+  <si>
+    <t>77944cuft.</t>
+  </si>
+  <si>
+    <t>77223cuft.</t>
+  </si>
+  <si>
+    <t>Rec&amp; Wellness/SAAC</t>
+  </si>
+  <si>
+    <t>936am</t>
+  </si>
+  <si>
+    <t>22060cuft.</t>
+  </si>
+  <si>
+    <t>20580cuft.</t>
+  </si>
+  <si>
+    <t>Central Plant</t>
+  </si>
+  <si>
+    <t>921am</t>
+  </si>
+  <si>
+    <t>378945/180909cuft.</t>
+  </si>
+  <si>
+    <t>374268/178623cuft.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,17 +484,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF444444"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -652,7 +501,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -686,16 +535,91 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
+      <right style="dotted">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -716,18 +640,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1011,7 +936,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,19 +975,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C2">
-        <v>46945.75</v>
+        <v>48369.75</v>
       </c>
       <c r="D2">
-        <v>46945.75</v>
+        <v>48713.494435234497</v>
       </c>
       <c r="E2">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="F2">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1070,19 +995,19 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C3">
-        <v>5038.1250723451303</v>
+        <v>5233.95721061527</v>
       </c>
       <c r="D3">
-        <v>5038.1250723451303</v>
+        <v>5246.2972940417503</v>
       </c>
       <c r="E3">
-        <v>2688</v>
+        <v>2969</v>
       </c>
       <c r="F3">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1090,19 +1015,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C4">
-        <v>5038.1250723451303</v>
+        <v>156776</v>
       </c>
       <c r="D4">
-        <v>5038.1250723451303</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2679</v>
+        <v>2976</v>
       </c>
       <c r="F4">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1110,19 +1035,19 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C5">
-        <v>52563.024583339597</v>
+        <v>48701.722671031901</v>
       </c>
       <c r="D5">
-        <v>52563.024583339597</v>
+        <v>49047.826303043701</v>
       </c>
       <c r="E5">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="F5">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1130,19 +1055,19 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C6">
-        <v>19080</v>
+        <v>559.5</v>
       </c>
       <c r="D6">
-        <v>19080</v>
+        <v>17344.500277512001</v>
       </c>
       <c r="E6">
-        <v>2688</v>
+        <v>96</v>
       </c>
       <c r="F6">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1150,19 +1075,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C7">
-        <v>38286.588957786502</v>
+        <v>40520.913734435999</v>
       </c>
       <c r="D7">
-        <v>38286.588957786502</v>
+        <v>40575.450670200997</v>
       </c>
       <c r="E7">
-        <v>2688</v>
+        <v>2972</v>
       </c>
       <c r="F7">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1170,19 +1095,19 @@
         <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C8">
-        <v>44180.369018859601</v>
+        <v>42685.139094600403</v>
       </c>
       <c r="D8">
-        <v>44180.369018859601</v>
+        <v>44855.569906664503</v>
       </c>
       <c r="E8">
-        <v>2688</v>
+        <v>2832</v>
       </c>
       <c r="F8">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1190,19 +1115,19 @@
         <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C9">
-        <v>30818.777075767499</v>
+        <v>32820.8530445098</v>
       </c>
       <c r="D9">
-        <v>30818.777075767499</v>
+        <v>32865.0264993823</v>
       </c>
       <c r="E9">
-        <v>2688</v>
+        <v>2972</v>
       </c>
       <c r="F9">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1210,19 +1135,19 @@
         <v>15</v>
       </c>
       <c r="B10" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C10">
-        <v>30818.777075767499</v>
+        <v>70994</v>
       </c>
       <c r="D10">
-        <v>30818.777075767499</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2688</v>
+        <v>2976</v>
       </c>
       <c r="F10">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1230,19 +1155,19 @@
         <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C11">
-        <v>6071.25077199935</v>
+        <v>5613.7507138252204</v>
       </c>
       <c r="D11">
-        <v>6071.25077199935</v>
+        <v>5653.6453911529097</v>
       </c>
       <c r="E11">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="F11">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1250,13 +1175,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C12">
-        <v>2659219</v>
+        <v>2680920</v>
       </c>
       <c r="H12" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1264,19 +1189,19 @@
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C13">
-        <v>2733.7503476142801</v>
+        <v>2938.1253736019098</v>
       </c>
       <c r="D13">
-        <v>2733.7503476142801</v>
+        <v>2959.0054535526401</v>
       </c>
       <c r="E13">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="F13">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1284,19 +1209,19 @@
         <v>18</v>
       </c>
       <c r="B14" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C14">
-        <v>4243.12553954124</v>
+        <v>4125.0005245208704</v>
       </c>
       <c r="D14">
-        <v>4243.12553954124</v>
+        <v>4154.3152506801598</v>
       </c>
       <c r="E14">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="F14">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1304,19 +1229,19 @@
         <v>19</v>
       </c>
       <c r="B15" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C15">
-        <v>4770.0006065368598</v>
+        <v>4777.5006074905396</v>
       </c>
       <c r="D15">
-        <v>4770.0006065368598</v>
+        <v>4811.4523903332101</v>
       </c>
       <c r="E15">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="F15">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1324,19 +1249,19 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C16">
-        <v>6798.7508642673401</v>
+        <v>6650.6258456707001</v>
       </c>
       <c r="D16">
-        <v>6798.7508642673401</v>
+        <v>6697.8891791647902</v>
       </c>
       <c r="E16">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="F16">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1344,19 +1269,19 @@
         <v>21</v>
       </c>
       <c r="B17" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C17">
-        <v>5101.8756487369501</v>
+        <v>5045.62564158439</v>
       </c>
       <c r="D17">
-        <v>5101.8756487369501</v>
+        <v>5081.4828816274203</v>
       </c>
       <c r="E17">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="F17">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1364,19 +1289,19 @@
         <v>22</v>
       </c>
       <c r="B18" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C18">
-        <v>3069.3753902912099</v>
+        <v>3129.3753979205999</v>
       </c>
       <c r="D18">
-        <v>3069.3753902912099</v>
+        <v>3151.61461517509</v>
       </c>
       <c r="E18">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="F18">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1384,19 +1309,19 @@
         <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C19">
-        <v>5386.8756849765696</v>
+        <v>5161.8756563663401</v>
       </c>
       <c r="D19">
-        <v>5386.8756849765696</v>
+        <v>5198.5590386920403</v>
       </c>
       <c r="E19">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="F19">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1404,19 +1329,19 @@
         <v>24</v>
       </c>
       <c r="B20" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C20">
-        <v>4854.3756172657004</v>
+        <v>4813.1256120204898</v>
       </c>
       <c r="D20">
-        <v>4854.3756172657004</v>
+        <v>4847.3305674981702</v>
       </c>
       <c r="E20">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="F20">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
@@ -1434,7 +1359,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,157 +1386,157 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>46</v>
+      <c r="A2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>52</v>
+      <c r="A3" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>56</v>
+      <c r="A4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>60</v>
+      <c r="A5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>68</v>
+      <c r="A6" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>72</v>
+      <c r="A8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>76</v>
+      <c r="A9" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>80</v>
+      <c r="A10" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>84</v>
+      <c r="A11" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>88</v>
+      <c r="A12" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1642,20 +1567,20 @@
       <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="6">
-        <v>43132</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2473.8362635154399</v>
-      </c>
-      <c r="D15" s="7">
-        <v>3427.66591789531</v>
-      </c>
-      <c r="E15" s="8">
-        <v>1940</v>
-      </c>
-      <c r="F15" s="7">
-        <v>2688</v>
+      <c r="B15" s="4">
+        <v>43160</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3071.71317115496</v>
+      </c>
+      <c r="D15" s="6">
+        <v>3344.8292716003598</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2733</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2976</v>
       </c>
       <c r="G15" s="5"/>
     </row>
@@ -1673,6 +1598,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1681,7 +1607,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,6 +1615,9 @@
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1716,19 +1645,19 @@
         <v>25</v>
       </c>
       <c r="B2" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C2">
-        <v>4009.9892721358301</v>
+        <v>6072.5624807929498</v>
       </c>
       <c r="D2">
-        <v>4009.9892721358301</v>
+        <v>6115.7177495381202</v>
       </c>
       <c r="E2">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="F2">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1736,19 +1665,19 @@
         <v>28</v>
       </c>
       <c r="B3" s="1">
-        <v>43132</v>
-      </c>
-      <c r="C3">
-        <v>-372.499378121549</v>
-      </c>
-      <c r="D3">
-        <v>-823.41967864630396</v>
+        <v>43160</v>
+      </c>
+      <c r="C3" s="16">
+        <v>2913.6604166666662</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
       </c>
       <c r="E3">
-        <v>1216</v>
+        <v>2966</v>
       </c>
       <c r="F3">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1756,19 +1685,19 @@
         <v>26</v>
       </c>
       <c r="B4" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C4">
-        <v>20111.2558274574</v>
+        <v>26093.083462577299</v>
       </c>
       <c r="D4">
-        <v>20201.440836965699</v>
+        <v>26145.796787855201</v>
       </c>
       <c r="E4">
-        <v>2676</v>
+        <v>2970</v>
       </c>
       <c r="F4">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1776,19 +1705,19 @@
         <v>27</v>
       </c>
       <c r="B5" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C5">
-        <v>3374.0002149607199</v>
+        <v>112.65666699630501</v>
       </c>
       <c r="D5">
-        <v>3374.0002149607199</v>
+        <v>3492.3567327631599</v>
       </c>
       <c r="E5">
-        <v>2688</v>
+        <v>96</v>
       </c>
       <c r="F5">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1796,19 +1725,19 @@
         <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C6">
-        <v>2903.63395153275</v>
+        <v>3860.2020758540102</v>
       </c>
       <c r="D6">
-        <v>2903.63395153275</v>
+        <v>3865.3975063921898</v>
       </c>
       <c r="E6">
-        <v>2688</v>
+        <v>2972</v>
       </c>
       <c r="F6">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1816,19 +1745,19 @@
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C7">
-        <v>6415.6882258669002</v>
+        <v>8975.2658811045294</v>
       </c>
       <c r="D7">
-        <v>6415.6882258668902</v>
+        <v>8990.3706747982196</v>
       </c>
       <c r="E7">
-        <v>2688</v>
+        <v>2971</v>
       </c>
       <c r="F7">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1836,19 +1765,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C8">
-        <v>1008.80625127452</v>
+        <v>1757.6869810682799</v>
       </c>
       <c r="D8">
-        <v>1009.18169108396</v>
+        <v>1760.0526449476699</v>
       </c>
       <c r="E8">
-        <v>2687</v>
+        <v>2972</v>
       </c>
       <c r="F8">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1856,19 +1785,19 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C9">
-        <v>2549.2574947712201</v>
+        <v>3990.7936183871998</v>
       </c>
       <c r="D9">
-        <v>2896.1978649788898</v>
+        <v>4694.3090184713501</v>
       </c>
       <c r="E9">
-        <v>2366</v>
+        <v>2530</v>
       </c>
       <c r="F9">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1876,19 +1805,19 @@
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C10">
-        <v>1121.23530509953</v>
+        <v>1233.43552703101</v>
       </c>
       <c r="D10">
-        <v>1121.23530509953</v>
+        <v>1242.2010591794599</v>
       </c>
       <c r="E10">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="F10">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1896,19 +1825,19 @@
         <v>16</v>
       </c>
       <c r="B11" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C11">
-        <v>917.82248646060395</v>
+        <v>1454.37093320181</v>
       </c>
       <c r="D11">
-        <v>917.82248646060395</v>
+        <v>1464.70656477019</v>
       </c>
       <c r="E11">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="F11">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1916,19 +1845,19 @@
         <v>17</v>
       </c>
       <c r="B12" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C12">
-        <v>592.18282060933495</v>
+        <v>899.87979112580399</v>
       </c>
       <c r="D12">
-        <v>592.18282060933495</v>
+        <v>906.274876289144</v>
       </c>
       <c r="E12">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="F12">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1936,19 +1865,19 @@
         <v>18</v>
       </c>
       <c r="B13" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C13">
-        <v>3352.1689897351398</v>
+        <v>3811.2795081855902</v>
       </c>
       <c r="D13">
-        <v>3352.1689897351398</v>
+        <v>3838.3647447655198</v>
       </c>
       <c r="E13">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="F13">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1956,19 +1885,19 @@
         <v>19</v>
       </c>
       <c r="B14" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C14">
-        <v>1440.59312509605</v>
+        <v>1805.9553081720001</v>
       </c>
       <c r="D14">
-        <v>1440.59312509605</v>
+        <v>1818.78950904065</v>
       </c>
       <c r="E14">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="F14">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1976,19 +1905,19 @@
         <v>20</v>
       </c>
       <c r="B15" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C15">
-        <v>2300.9257417522799</v>
+        <v>2395.9635828842602</v>
       </c>
       <c r="D15">
-        <v>2300.9257417522799</v>
+        <v>2412.9907361906398</v>
       </c>
       <c r="E15">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="F15">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1996,19 +1925,19 @@
         <v>21</v>
       </c>
       <c r="B16" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C16">
-        <v>3444.4536418758298</v>
+        <v>3955.37655887455</v>
       </c>
       <c r="D16">
-        <v>3444.4536418758298</v>
+        <v>3983.4858354651901</v>
       </c>
       <c r="E16">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="F16">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2016,19 +1945,19 @@
         <v>22</v>
       </c>
       <c r="B17" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C17">
-        <v>373.62812574704498</v>
+        <v>344.06458481152703</v>
       </c>
       <c r="D17">
-        <v>373.62812574704498</v>
+        <v>346.50971397572999</v>
       </c>
       <c r="E17">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="F17">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2036,19 +1965,19 @@
         <v>23</v>
       </c>
       <c r="B18" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C18">
-        <v>1120.3726084545699</v>
+        <v>711.96540559401001</v>
       </c>
       <c r="D18">
-        <v>1120.3726084545699</v>
+        <v>717.02505850212697</v>
       </c>
       <c r="E18">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="F18">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2056,19 +1985,19 @@
         <v>24</v>
       </c>
       <c r="B19" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="C19">
-        <v>1079.2741677149399</v>
+        <v>1483.41449223786</v>
       </c>
       <c r="D19">
-        <v>1079.2741677149399</v>
+        <v>1493.9565247448099</v>
       </c>
       <c r="E19">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="F19">
-        <v>2688</v>
+        <v>2976</v>
       </c>
     </row>
   </sheetData>
@@ -2078,13 +2007,1012 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>256897.1</v>
+      </c>
+      <c r="D2">
+        <v>248248.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>12183.6</v>
+      </c>
+      <c r="D3">
+        <v>11636.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>3172504</v>
+      </c>
+      <c r="D4">
+        <v>3074997.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>22601.3</v>
+      </c>
+      <c r="D5">
+        <v>22525.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>7104000</v>
+      </c>
+      <c r="D6">
+        <v>989000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>98178300</v>
+      </c>
+      <c r="D7">
+        <v>98039200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>5858181</v>
+      </c>
+      <c r="D8">
+        <v>5839949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>4251515</v>
+      </c>
+      <c r="D9">
+        <v>4236999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>4109029.4</v>
+      </c>
+      <c r="D10">
+        <v>3930835.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>781472.8</v>
+      </c>
+      <c r="D11">
+        <v>724154.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>6715700.5999999996</v>
+      </c>
+      <c r="D12">
+        <v>6628935.7999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <v>41401350.399999999</v>
+      </c>
+      <c r="D13">
+        <v>40884980.399999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>4244999.88</v>
+      </c>
+      <c r="D14">
+        <v>4024216.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>41913421</v>
+      </c>
+      <c r="D15">
+        <v>41398460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>2146482.9</v>
+      </c>
+      <c r="D16">
+        <v>2074208.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17">
+        <v>1071813.6000000001</v>
+      </c>
+      <c r="D17">
+        <v>1031415.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>929331.93</v>
+      </c>
+      <c r="D18">
+        <v>910174.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <v>196352.2</v>
+      </c>
+      <c r="D19">
+        <v>182500.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20">
+        <v>866673</v>
+      </c>
+      <c r="D20">
+        <v>860066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>15525.69</v>
+      </c>
+      <c r="D21">
+        <v>15525.69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>105241.1</v>
+      </c>
+      <c r="D22">
+        <v>102394.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23">
+        <v>364419</v>
+      </c>
+      <c r="D23">
+        <v>352816</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24">
+        <v>660799</v>
+      </c>
+      <c r="D24">
+        <v>659877</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25">
+        <v>241442</v>
+      </c>
+      <c r="D25">
+        <v>240615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>268578.09999999998</v>
+      </c>
+      <c r="D26">
+        <v>257363.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27">
+        <v>135870.39999999999</v>
+      </c>
+      <c r="D27">
+        <v>126299.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>8089608.5999999996</v>
+      </c>
+      <c r="D28">
+        <v>7783222.0999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29">
+        <v>6077252.7000000002</v>
+      </c>
+      <c r="D29">
+        <v>5821569.2999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
+        <v>989217</v>
+      </c>
+      <c r="D30">
+        <v>983089</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>5099611.0999999996</v>
+      </c>
+      <c r="D31">
+        <v>5098967.5999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>1168679.8</v>
+      </c>
+      <c r="D32">
+        <v>1124270.1000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33">
+        <v>417.8</v>
+      </c>
+      <c r="D33">
+        <v>412.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <v>3487325.7</v>
+      </c>
+      <c r="D34">
+        <v>3361479</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35">
+        <v>1159498.3</v>
+      </c>
+      <c r="D35">
+        <v>1114481.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36">
+        <v>229874.6</v>
+      </c>
+      <c r="D36">
+        <v>225384.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37">
+        <v>1622484</v>
+      </c>
+      <c r="D37">
+        <v>1614038</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38">
+        <v>1669704</v>
+      </c>
+      <c r="D38">
+        <v>1666364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>1273526.3999999999</v>
+      </c>
+      <c r="D39">
+        <v>1219470</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40">
+        <v>610226.80000000005</v>
+      </c>
+      <c r="D40">
+        <v>586794.80000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41">
+        <v>4299264</v>
+      </c>
+      <c r="D41">
+        <v>4284917</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>966231.3</v>
+      </c>
+      <c r="D42">
+        <v>931697.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43">
+        <v>78139.5</v>
+      </c>
+      <c r="D43">
+        <v>74936.800000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44">
+        <v>1365705</v>
+      </c>
+      <c r="D44">
+        <v>1360884</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45">
+        <v>1072261.6000000001</v>
+      </c>
+      <c r="D45">
+        <v>1068673.8999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>752478.6</v>
+      </c>
+      <c r="D46">
+        <v>728332.80000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>967.4</v>
+      </c>
+      <c r="D47">
+        <v>464.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48">
+        <v>984628.1</v>
+      </c>
+      <c r="D48">
+        <v>977254.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <v>5026000</v>
+      </c>
+      <c r="D49">
+        <v>4413300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50">
+        <v>6777400</v>
+      </c>
+      <c r="D50">
+        <v>6647700</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52">
+        <v>5975285</v>
+      </c>
+      <c r="D52">
+        <v>5939075</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53">
+        <v>82903</v>
+      </c>
+      <c r="D53">
+        <v>82610</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54">
+        <v>224768</v>
+      </c>
+      <c r="D54">
+        <v>224307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <v>1287544.7</v>
+      </c>
+      <c r="D55">
+        <v>1231897.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56">
+        <v>30349.200000000001</v>
+      </c>
+      <c r="D56">
+        <v>30264.799999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57">
+        <v>5174773.9000000004</v>
+      </c>
+      <c r="D57">
+        <v>4932644.0999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58">
+        <v>1402.4</v>
+      </c>
+      <c r="D58">
+        <v>1288.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59">
+        <v>315581.5</v>
+      </c>
+      <c r="D59">
+        <v>304701.40000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60">
+        <v>239612.2</v>
+      </c>
+      <c r="D60">
+        <v>229738.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61">
+        <v>7078932</v>
+      </c>
+      <c r="D61">
+        <v>7078932</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62">
+        <v>2548407</v>
+      </c>
+      <c r="D62">
+        <v>2548345</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63">
+        <v>452677.2</v>
+      </c>
+      <c r="D63">
+        <v>440417.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64">
+        <v>449666.6</v>
+      </c>
+      <c r="D64">
+        <v>438487.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65">
+        <v>2236108</v>
+      </c>
+      <c r="D65">
+        <v>2225118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66">
+        <v>4588593.7</v>
+      </c>
+      <c r="D66">
+        <v>4428019.0999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67">
+        <v>242737.6</v>
+      </c>
+      <c r="D67">
+        <v>235017.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68">
+        <v>782291.9</v>
+      </c>
+      <c r="D68">
+        <v>653164.73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69">
+        <v>350872.9</v>
+      </c>
+      <c r="D69">
+        <v>334187.40000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70">
+        <v>1472015.7</v>
+      </c>
+      <c r="D70">
+        <v>1404699.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71">
+        <v>340.3</v>
+      </c>
+      <c r="D71">
+        <v>334.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72">
+        <v>4485152.42</v>
+      </c>
+      <c r="D72">
+        <v>3682992.31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73">
+        <v>1366613.6</v>
+      </c>
+      <c r="D73">
+        <v>1214990.8999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74">
+        <v>2978590</v>
+      </c>
+      <c r="D74">
+        <v>2966494</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75">
+        <v>9862199.1999999993</v>
+      </c>
+      <c r="D75">
+        <v>9670756.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76">
+        <v>5091360.5999999996</v>
+      </c>
+      <c r="D76">
+        <v>4997550.7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C4-2-2018</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2093,7 +3021,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,7 +3034,7 @@
         <v>33</v>
       </c>
       <c r="B1">
-        <v>1574771</v>
+        <v>1654490</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2114,7 +3042,7 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>122407</v>
+        <v>113103.55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2122,7 +3050,7 @@
         <v>35</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>5411</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2130,7 +3058,7 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>1506.62</v>
+        <v>28873.02</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2138,7 +3066,7 @@
         <v>37</v>
       </c>
       <c r="B5">
-        <v>176624</v>
+        <v>185242</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2146,7 +3074,7 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>27007</v>
+        <v>28325.35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2154,7 +3082,7 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>107322.26</v>
+        <v>126543.13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2162,7 +3090,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>39963.699999999997</v>
+        <v>31049.75</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2170,7 +3098,7 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>9534</v>
+        <v>6438</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2178,7 +3106,7 @@
         <v>42</v>
       </c>
       <c r="B10">
-        <v>67910.850000000006</v>
+        <v>39875.35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2186,7 +3114,7 @@
         <v>43</v>
       </c>
       <c r="B11">
-        <v>74496</v>
+        <v>47350</v>
       </c>
     </row>
   </sheetData>
